--- a/biology/Histoire de la zoologie et de la botanique/Botaniste/Botaniste.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Botaniste/Botaniste.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un botaniste est un scientifique, professionnel ou amateur, qui étudie la botanique ou science des végétaux, sur le terrain (in situ), en laboratoire (ex situ) ou  dans des jardins botaniques. Un botaniste va collecter des données sur les plantes, les identifier, comprendre leur reproduction, leur croissance et leurs propriétés médicinales. Les botanistes travaillent souvent en collaboration avec d'autres scientifiques pour comprendre comment les plantes interagissent avec leur environnement et comment elles sont affectées par les changements climatiques. 
 L'objet de cette profession est notamment : 
@@ -519,12 +531,48 @@
           <t>Catégories connexes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Botaniste par nationalité
-Botaniste par spécialité
-Listes connexes
-Liste de botanistes
+Botaniste par spécialité</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Botaniste</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Botaniste</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Catégories connexes</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Listes connexes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Liste de botanistes
 Liste des abréviations d'auteur en taxinomie végétale</t>
         </is>
       </c>
